--- a/app/ficheros/datos/tarifas_a_TPV/export_sqlpyme.xlsx
+++ b/app/ficheros/datos/tarifas_a_TPV/export_sqlpyme.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Mallorquina_API\app\datos\tarifas_a_TPV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Mallorquina_API\app\ficheros\datos\tarifas_a_TPV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC70F42C-AE89-44D7-BCF4-0B85BB2F4AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E559EEB4-15E7-491B-8C19-945C55291F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="13372" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="33">
   <si>
     <t>Código</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>1.2</t>
+  </si>
+  <si>
+    <t>esdfsdfasdfsdf</t>
   </si>
 </sst>
 </file>
@@ -488,7 +491,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.53515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -578,7 +581,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>20</v>
